--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="2485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="2486">
   <si>
     <t>Category</t>
   </si>
@@ -6338,6 +6338,9 @@
   </si>
   <si>
     <t>Welcome to the Role Draft!</t>
+  </si>
+  <si>
+    <t>欢迎来到轮抽选角！</t>
   </si>
   <si>
     <t>({0} rounds until your turn)</t>
@@ -7986,13 +7989,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="MS Gothic"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="MS Gothic"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -8816,8 +8819,8 @@
   <sheetPr/>
   <dimension ref="A1:R1125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="P66" sqref="P66"/>
+    <sheetView tabSelected="1" topLeftCell="B858" workbookViewId="0">
+      <selection activeCell="P878" sqref="P878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25"/>
@@ -22138,7 +22141,7 @@
       </c>
       <c r="D876" s="4"/>
       <c r="P876" s="2" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="877" spans="1:16">
@@ -22149,11 +22152,11 @@
         <v>6</v>
       </c>
       <c r="C877" s="2" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="D877" s="4"/>
       <c r="P877" s="2" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="878" spans="1:16">
@@ -22164,11 +22167,11 @@
         <v>7</v>
       </c>
       <c r="C878" s="2" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="D878" s="4"/>
       <c r="P878" s="2" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="879" spans="1:16">
@@ -22179,11 +22182,11 @@
         <v>8</v>
       </c>
       <c r="C879" s="2" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="D879" s="4"/>
       <c r="P879" s="2" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="880" spans="1:16">
@@ -22194,7 +22197,7 @@
         <v>9</v>
       </c>
       <c r="C880" s="2" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="D880" s="4"/>
       <c r="P880" s="2" t="s">
@@ -22209,7 +22212,7 @@
         <v>10</v>
       </c>
       <c r="C881" s="2" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="D881" s="4"/>
       <c r="P881" s="2" t="s">
@@ -22218,427 +22221,427 @@
     </row>
     <row r="883" spans="1:16">
       <c r="A883" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B883" s="3">
         <v>1</v>
       </c>
       <c r="C883" s="2" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="D883" s="4" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="P883" s="2" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="884" spans="1:16">
       <c r="A884" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B884" s="3">
         <v>2</v>
       </c>
       <c r="C884" s="2" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="D884" s="4" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="P884" s="2" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="885" spans="1:16">
       <c r="A885" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B885" s="3">
         <v>3</v>
       </c>
       <c r="C885" s="2" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="D885" s="4" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="P885" s="2" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="886" spans="1:16">
       <c r="A886" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B886" s="3">
         <v>4</v>
       </c>
       <c r="C886" s="2" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="D886" s="4" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="P886" s="2" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="887" spans="1:16">
       <c r="A887" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B887" s="3">
         <v>5</v>
       </c>
       <c r="C887" s="2" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="D887" s="4" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="P887" s="2" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="888" spans="1:16">
       <c r="A888" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B888" s="3">
         <v>6</v>
       </c>
       <c r="C888" s="2" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="D888" s="4" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="P888" s="2" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="889" spans="1:16">
       <c r="A889" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B889" s="3">
         <v>7</v>
       </c>
       <c r="C889" s="2" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="D889" s="4" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="P889" s="2" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="890" spans="1:16">
       <c r="A890" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B890" s="3">
         <v>8</v>
       </c>
       <c r="C890" s="2" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="D890" s="4" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="P890" s="2" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="891" spans="1:16">
       <c r="A891" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B891" s="3">
         <v>9</v>
       </c>
       <c r="C891" s="2" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="D891" s="4" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="P891" s="2" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="892" spans="1:16">
       <c r="A892" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B892" s="3">
         <v>10</v>
       </c>
       <c r="C892" s="2" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="D892" s="4" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="P892" s="2" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="893" spans="1:16">
       <c r="A893" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B893" s="3">
         <v>11</v>
       </c>
       <c r="C893" s="2" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="D893" s="2" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="P893" s="2" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="894" spans="1:16">
       <c r="A894" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B894" s="3">
         <v>12</v>
       </c>
       <c r="C894" s="2" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="D894" s="2" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="P894" s="2" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="895" spans="1:16">
       <c r="A895" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B895" s="3">
         <v>13</v>
       </c>
       <c r="C895" s="2" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="D895" s="4" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="P895" s="2" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="897" spans="1:16">
       <c r="A897" s="2" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="B897" s="3">
         <v>1</v>
       </c>
       <c r="C897" s="2" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="D897" s="4" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="P897" s="2" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="898" spans="1:16">
       <c r="A898" s="2" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="B898" s="3">
         <v>2</v>
       </c>
       <c r="C898" s="2" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="D898" s="2" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P898" s="2" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="900" spans="1:16">
       <c r="A900" s="2" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="B900" s="3">
         <v>1</v>
       </c>
       <c r="C900" s="2" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="D900" s="2" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P900" s="2" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="901" spans="1:16">
       <c r="A901" s="2" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="B901" s="3">
         <v>2</v>
       </c>
       <c r="C901" s="2" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="D901" s="4" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="P901" s="2" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="903" spans="1:16">
       <c r="A903" s="2" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="B903" s="3">
         <v>1</v>
       </c>
       <c r="C903" s="2" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="D903" s="2" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="P903" s="2" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="905" spans="1:16">
       <c r="A905" s="2" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="B905" s="3">
         <v>1</v>
       </c>
       <c r="C905" s="2" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="P905" s="2" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="907" spans="1:16">
       <c r="A907" s="2" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="B907" s="3">
         <v>1</v>
       </c>
       <c r="C907" s="2" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="P907" s="2" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="908" spans="1:16">
       <c r="A908" s="2" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="B908" s="3">
         <v>2</v>
       </c>
       <c r="C908" s="2" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="D908" s="4" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="P908" s="2" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="910" spans="1:16">
       <c r="A910" s="2" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="B910" s="3">
         <v>1</v>
       </c>
       <c r="C910" s="2" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="D910" s="4" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="P910" s="2" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="911" spans="1:16">
       <c r="A911" s="2" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="B911" s="3">
         <v>2</v>
       </c>
       <c r="C911" s="2" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="D911" s="2" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="P911" s="2" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="912" spans="1:16">
       <c r="A912" s="2" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="B912" s="3">
         <v>3</v>
       </c>
       <c r="C912" s="2" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="D912" s="2" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="P912" s="2" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="913" spans="1:16">
       <c r="A913" s="2" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="B913" s="3">
         <v>4</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="D913" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="P913" s="2" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="914" spans="2:4">
@@ -22647,510 +22650,510 @@
     </row>
     <row r="915" spans="1:16">
       <c r="A915" s="2" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="B915" s="3">
         <v>1</v>
       </c>
       <c r="C915" s="2" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="D915" s="4"/>
       <c r="P915" s="2" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="917" spans="1:16">
       <c r="A917" s="2" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="B917" s="3">
         <v>1</v>
       </c>
       <c r="C917" s="2" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="D917" s="4" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="P917" s="2" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="919" spans="1:16">
       <c r="A919" s="2" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="B919" s="3">
         <v>1</v>
       </c>
       <c r="C919" s="2" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="D919" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="P919" s="2" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="920" spans="1:16">
       <c r="A920" s="2" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="B920" s="3">
         <v>2</v>
       </c>
       <c r="C920" s="2" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="D920" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="P920" s="2" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="922" spans="1:16">
       <c r="A922" s="2" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="B922" s="3">
         <v>1</v>
       </c>
       <c r="C922" s="2" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="D922" s="2" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="P922" s="2" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="924" spans="1:16">
       <c r="A924" s="2" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="B924" s="3">
         <v>1</v>
       </c>
       <c r="C924" s="2" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="D924" s="2" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="P924" s="2" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="926" spans="1:16">
       <c r="A926" s="2" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="B926" s="3">
         <v>1</v>
       </c>
       <c r="C926" s="2" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="D926" s="4" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="P926" s="2" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="928" spans="1:16">
       <c r="A928" s="2" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="B928" s="3">
         <v>1</v>
       </c>
       <c r="C928" s="2" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="D928" s="4" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="P928" s="2" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="929" spans="1:16">
       <c r="A929" s="2" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="B929" s="3">
         <v>2</v>
       </c>
       <c r="C929" s="2" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="D929" s="4" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="P929" s="2" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="930" spans="1:16">
       <c r="A930" s="2" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="B930" s="3">
         <v>3</v>
       </c>
       <c r="C930" s="2" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="D930" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="P930" s="2" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="932" spans="1:16">
       <c r="A932" s="2" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="B932" s="3">
         <v>1</v>
       </c>
       <c r="C932" s="2" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="D932" s="2" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="P932" s="2" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="933" spans="1:16">
       <c r="A933" s="2" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="B933" s="3">
         <v>2</v>
       </c>
       <c r="C933" s="2" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="D933" s="4" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="P933" s="2" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="934" spans="1:16">
       <c r="A934" s="2" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="B934" s="3">
         <v>3</v>
       </c>
       <c r="C934" s="2" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="D934" s="4"/>
       <c r="P934" s="2" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="936" spans="1:16">
       <c r="A936" s="2" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="B936" s="3">
         <v>1</v>
       </c>
       <c r="C936" s="2" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="D936" s="2" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="P936" s="2" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="937" spans="1:16">
       <c r="A937" s="2" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="B937" s="3">
         <v>2</v>
       </c>
       <c r="C937" s="2" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="D937" s="4" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="P937" s="2" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="938" spans="1:16">
       <c r="A938" s="2" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="B938" s="3">
         <v>3</v>
       </c>
       <c r="C938" s="2" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="D938" s="2" t="s">
         <v>476</v>
       </c>
       <c r="P938" s="2" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="939" spans="1:16">
       <c r="A939" s="2" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="B939" s="3">
         <v>4</v>
       </c>
       <c r="C939" s="2" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="P939" s="2" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="941" spans="1:16">
       <c r="A941" s="2" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="B941" s="3">
         <v>1</v>
       </c>
       <c r="C941" s="2" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="D941" s="2" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="P941" s="2" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="942" spans="1:16">
       <c r="A942" s="2" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="B942" s="3">
         <v>2</v>
       </c>
       <c r="C942" s="2" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="D942" s="2" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="P942" s="2" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="943" spans="1:16">
       <c r="A943" s="2" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="B943" s="3">
         <v>3</v>
       </c>
       <c r="C943" s="2" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="D943" s="2" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="P943" s="2" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="944" spans="1:16">
       <c r="A944" s="2" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="B944" s="3">
         <v>4</v>
       </c>
       <c r="C944" s="2" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="D944" s="2" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="P944" s="2" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="945" spans="1:16">
       <c r="A945" s="2" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="B945" s="3">
         <v>5</v>
       </c>
       <c r="C945" s="2" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="D945" s="4" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="P945" s="2" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="947" spans="1:16">
       <c r="A947" s="2" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="B947" s="3">
         <v>1</v>
       </c>
       <c r="C947" s="2" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="D947" s="2" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="P947" s="2" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="949" spans="1:16">
       <c r="A949" s="2" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B949" s="3">
         <v>1</v>
       </c>
       <c r="C949" s="2" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="D949" s="2" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="P949" s="2" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="950" spans="1:16">
       <c r="A950" s="2" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B950" s="3">
         <v>2</v>
       </c>
       <c r="C950" s="2" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="D950" s="2" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="P950" s="2" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="951" spans="1:16">
       <c r="A951" s="2" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B951" s="3">
         <v>3</v>
       </c>
       <c r="C951" s="2" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="D951" s="4" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="P951" s="2" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="952" spans="1:16">
       <c r="A952" s="2" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B952" s="3">
         <v>4</v>
       </c>
       <c r="C952" s="2" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="D952" s="2" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="P952" s="2" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="953" spans="1:16">
       <c r="A953" s="2" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B953" s="3">
         <v>5</v>
       </c>
       <c r="C953" s="2" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="D953" s="4" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="P953" s="15" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="954" spans="1:16">
       <c r="A954" s="2" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B954" s="3">
         <v>6</v>
       </c>
       <c r="C954" s="2" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="D954" s="2" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="P954" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="955" spans="1:16">
       <c r="A955" s="2" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B955" s="3">
         <v>7</v>
       </c>
       <c r="C955" s="2" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="D955" s="2" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="P955" s="2" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="956" spans="1:16">
       <c r="A956" s="2" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B956" s="3">
         <v>8</v>
@@ -23164,228 +23167,228 @@
     </row>
     <row r="958" ht="28.5" spans="1:16">
       <c r="A958" s="2" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B958" s="3">
         <v>1</v>
       </c>
       <c r="C958" s="2" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="D958" s="4" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="P958" s="2" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="959" ht="28.5" spans="1:16">
       <c r="A959" s="2" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B959" s="3">
         <v>2</v>
       </c>
       <c r="C959" s="2" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="D959" s="4" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="P959" s="2" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="960" ht="28.5" spans="1:16">
       <c r="A960" s="2" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B960" s="3">
         <v>3</v>
       </c>
       <c r="C960" s="2" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="D960" s="4" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="P960" s="2" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="961" ht="28.5" spans="1:16">
       <c r="A961" s="2" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B961" s="3">
         <v>4</v>
       </c>
       <c r="C961" s="2" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="D961" s="4" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="P961" s="2" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="962" ht="28.5" spans="1:16">
       <c r="A962" s="2" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B962" s="3">
         <v>5</v>
       </c>
       <c r="C962" s="2" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="D962" s="4" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="P962" s="2" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="963" spans="1:16">
       <c r="A963" s="2" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B963" s="3">
         <v>6</v>
       </c>
       <c r="C963" s="2" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="D963" s="4" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="P963" s="2" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="964" spans="1:16">
       <c r="A964" s="2" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B964" s="3">
         <v>7</v>
       </c>
       <c r="C964" s="2" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="D964" s="2" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="P964" s="2" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="965" spans="1:16">
       <c r="A965" s="2" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B965" s="3">
         <v>8</v>
       </c>
       <c r="C965" s="2" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="P965" s="2" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="966" spans="1:16">
       <c r="A966" s="2" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B966" s="3">
         <v>9</v>
       </c>
       <c r="C966" s="2" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="P966" s="2" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="967" spans="1:16">
       <c r="A967" s="2" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B967" s="3">
         <v>10</v>
       </c>
       <c r="C967" s="2" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="P967" s="2" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="968" spans="1:16">
       <c r="A968" s="2" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="B968" s="3">
         <v>11</v>
       </c>
       <c r="C968" s="2" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="P968" s="2" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="970" spans="1:16">
       <c r="A970" s="2" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="B970" s="3">
         <v>1</v>
       </c>
       <c r="C970" s="2" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="D970" s="2" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="P970" s="2" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="971" spans="1:16">
       <c r="A971" s="2" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="B971" s="3">
         <v>2</v>
       </c>
       <c r="C971" s="2" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="D971" s="4" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="P971" s="2" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="972" spans="1:16">
       <c r="A972" s="2" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="B972" s="3">
         <v>3</v>
       </c>
       <c r="C972" s="2" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="D972" s="4" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="P972" s="2" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="973" spans="2:2">
@@ -23393,387 +23396,387 @@
     </row>
     <row r="974" spans="1:16">
       <c r="A974" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B974" s="3">
         <v>1</v>
       </c>
       <c r="C974" s="2" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="D974" s="2" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="P974" s="2" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="975" spans="1:16">
       <c r="A975" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B975" s="3">
         <v>2</v>
       </c>
       <c r="C975" s="2" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="D975" s="2" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="P975" s="2" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="976" spans="1:16">
       <c r="A976" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B976" s="3">
         <v>3</v>
       </c>
       <c r="C976" s="2" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="D976" s="2" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="P976" s="2" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="977" spans="1:16">
       <c r="A977" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B977" s="3">
         <v>4</v>
       </c>
       <c r="C977" s="2" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="D977" s="4" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="P977" s="2" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="978" spans="1:16">
       <c r="A978" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B978" s="3">
         <v>5</v>
       </c>
       <c r="C978" s="2" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="D978" s="2" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="P978" s="2" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="979" spans="1:16">
       <c r="A979" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B979" s="3">
         <v>6</v>
       </c>
       <c r="C979" s="2" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="D979" s="4" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="P979" s="2" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="980" spans="1:16">
       <c r="A980" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B980" s="3">
         <v>7</v>
       </c>
       <c r="C980" s="2" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="D980" s="4" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="P980" s="2" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="981" spans="1:16">
       <c r="A981" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B981" s="3">
         <v>8</v>
       </c>
       <c r="C981" s="2" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="D981" s="2" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="P981" s="2" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="982" spans="1:16">
       <c r="A982" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B982" s="3">
         <v>9</v>
       </c>
       <c r="C982" s="2" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="D982" s="4" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="P982" s="2" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="983" spans="1:16">
       <c r="A983" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B983" s="3">
         <v>10</v>
       </c>
       <c r="C983" s="2" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="D983" s="2" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="P983" s="2" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="984" spans="1:16">
       <c r="A984" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B984" s="3">
         <v>11</v>
       </c>
       <c r="C984" s="2" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="D984" s="2" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="P984" s="2" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="985" spans="1:16">
       <c r="A985" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B985" s="3">
         <v>12</v>
       </c>
       <c r="C985" s="2" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="D985" s="4" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="P985" s="2" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="986" spans="1:16">
       <c r="A986" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B986" s="3">
         <v>13</v>
       </c>
       <c r="C986" s="2" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="D986" s="4" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="P986" s="2" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="987" spans="1:16">
       <c r="A987" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B987" s="3">
         <v>14</v>
       </c>
       <c r="C987" s="2" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="D987" s="2" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="P987" s="2" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="988" spans="1:16">
       <c r="A988" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B988" s="3">
         <v>15</v>
       </c>
       <c r="C988" s="2" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="D988" s="4" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="P988" s="2" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="989" spans="1:16">
       <c r="A989" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B989" s="3">
         <v>16</v>
       </c>
       <c r="C989" s="2" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="D989" s="4" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="P989" s="2" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="990" spans="1:16">
       <c r="A990" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B990" s="3">
         <v>17</v>
       </c>
       <c r="C990" s="2" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="D990" s="4" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="P990" s="2" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="991" spans="1:16">
       <c r="A991" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B991" s="3">
         <v>18</v>
       </c>
       <c r="C991" s="2" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="D991" s="4" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="P991" s="2" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="992" spans="1:16">
       <c r="A992" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B992" s="3">
         <v>19</v>
       </c>
       <c r="C992" s="2" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="D992" s="4" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="P992" s="2" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="993" spans="1:16">
       <c r="A993" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B993" s="3">
         <v>20</v>
       </c>
       <c r="C993" s="2" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="D993" s="2" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="P993" s="2" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="994" spans="1:16">
       <c r="A994" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B994" s="3">
         <v>21</v>
       </c>
       <c r="C994" s="2" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="D994" s="2" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="P994" s="2" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="995" spans="1:16">
       <c r="A995" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B995" s="3">
         <v>22</v>
       </c>
       <c r="C995" s="2" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="D995" s="4" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="P995" s="2" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="996" spans="1:16">
       <c r="A996" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B996" s="3">
         <v>23</v>
       </c>
       <c r="C996" s="11" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="D996" s="11"/>
       <c r="E996" s="11"/>
@@ -23788,18 +23791,18 @@
       <c r="N996" s="11"/>
       <c r="O996" s="11"/>
       <c r="P996" s="11" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="997" spans="1:16">
       <c r="A997" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B997" s="3">
         <v>24</v>
       </c>
       <c r="C997" s="11" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="D997" s="11"/>
       <c r="E997" s="11"/>
@@ -23814,18 +23817,18 @@
       <c r="N997" s="11"/>
       <c r="O997" s="11"/>
       <c r="P997" s="11" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="998" spans="1:16">
       <c r="A998" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B998" s="3">
         <v>25</v>
       </c>
       <c r="C998" s="11" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="D998" s="11"/>
       <c r="E998" s="11"/>
@@ -23840,18 +23843,18 @@
       <c r="N998" s="11"/>
       <c r="O998" s="11"/>
       <c r="P998" s="11" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="999" spans="1:16">
       <c r="A999" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B999" s="3">
         <v>26</v>
       </c>
       <c r="C999" s="11" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="D999" s="11"/>
       <c r="E999" s="11"/>
@@ -23866,18 +23869,18 @@
       <c r="N999" s="11"/>
       <c r="O999" s="11"/>
       <c r="P999" s="11" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1000" spans="1:16">
       <c r="A1000" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B1000" s="3">
         <v>27</v>
       </c>
       <c r="C1000" s="11" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="D1000" s="11"/>
       <c r="E1000" s="11"/>
@@ -23892,18 +23895,18 @@
       <c r="N1000" s="11"/>
       <c r="O1000" s="11"/>
       <c r="P1000" s="11" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1001" spans="1:16">
       <c r="A1001" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B1001" s="3">
         <v>28</v>
       </c>
       <c r="C1001" s="11" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="D1001" s="11"/>
       <c r="E1001" s="11"/>
@@ -23918,18 +23921,18 @@
       <c r="N1001" s="11"/>
       <c r="O1001" s="11"/>
       <c r="P1001" s="11" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1002" spans="1:16">
       <c r="A1002" s="2" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B1002" s="3">
         <v>29</v>
       </c>
       <c r="C1002" s="11" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="D1002" s="11"/>
       <c r="E1002" s="11"/>
@@ -23944,157 +23947,157 @@
       <c r="N1002" s="11"/>
       <c r="O1002" s="11"/>
       <c r="P1002" s="11" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1004" spans="1:16">
       <c r="A1004" s="2" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="B1004" s="3">
         <v>1</v>
       </c>
       <c r="C1004" s="2" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="D1004" s="4" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="P1004" s="2" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1005" spans="1:16">
       <c r="A1005" s="2" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="B1005" s="3">
         <v>2</v>
       </c>
       <c r="C1005" s="2" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="D1005" s="4" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="P1005" s="2" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1006" spans="1:16">
       <c r="A1006" s="2" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="B1006" s="3">
         <v>3</v>
       </c>
       <c r="C1006" s="2" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="D1006" s="4" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="P1006" s="2" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1007" spans="1:16">
       <c r="A1007" s="2" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="B1007" s="3">
         <v>4</v>
       </c>
       <c r="C1007" s="2" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="D1007" s="4" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="P1007" s="2" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1008" ht="28.5" spans="1:16">
       <c r="A1008" s="2" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="B1008" s="3">
         <v>5</v>
       </c>
       <c r="C1008" s="2" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="D1008" s="4" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="P1008" s="2" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1009" spans="1:16">
       <c r="A1009" s="2" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="B1009" s="3">
         <v>6</v>
       </c>
       <c r="C1009" s="2" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="D1009" s="4" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="P1009" s="2" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1010" spans="1:16">
       <c r="A1010" s="2" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="B1010" s="3">
         <v>7</v>
       </c>
       <c r="C1010" s="2" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="D1010" s="4" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="P1010" s="2" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1011" spans="1:16">
       <c r="A1011" s="2" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="B1011" s="3">
         <v>8</v>
       </c>
       <c r="C1011" s="2" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="D1011" s="4" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="P1011" s="2" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1013" spans="1:16">
       <c r="A1013" s="2" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B1013" s="3">
         <v>1</v>
       </c>
       <c r="C1013" s="2" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="D1013" s="2" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="P1013" s="2" t="s">
         <v>166</v>
@@ -24102,7 +24105,7 @@
     </row>
     <row r="1014" spans="1:16">
       <c r="A1014" s="2" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B1014" s="3">
         <v>2</v>
@@ -24119,24 +24122,24 @@
     </row>
     <row r="1015" spans="1:16">
       <c r="A1015" s="2" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B1015" s="2">
         <v>3</v>
       </c>
       <c r="C1015" s="2" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="D1015" s="2" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="P1015" s="2" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1016" spans="1:16">
       <c r="A1016" s="2" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B1016" s="2">
         <v>4</v>
@@ -24150,307 +24153,307 @@
     </row>
     <row r="1017" ht="85.5" spans="1:16">
       <c r="A1017" s="2" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B1017" s="2">
         <v>5</v>
       </c>
       <c r="C1017" s="2" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="P1017" s="2" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1018" ht="28.5" spans="1:16">
       <c r="A1018" s="2" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B1018" s="2">
         <v>6</v>
       </c>
       <c r="C1018" s="2" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="P1018" s="2" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1019" ht="85.5" spans="1:16">
       <c r="A1019" s="2" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B1019" s="2">
         <v>7</v>
       </c>
       <c r="C1019" s="2" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="P1019" s="2" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1020" spans="1:16">
       <c r="A1020" s="2" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B1020" s="2">
         <v>8</v>
       </c>
       <c r="C1020" s="2" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="P1020" s="2" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="1022" spans="1:16">
       <c r="A1022" s="2" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="B1022" s="2">
         <v>1</v>
       </c>
       <c r="C1022" s="2" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="P1022" s="2" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1023" spans="1:16">
       <c r="A1023" s="2" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="B1023" s="2">
         <v>2</v>
       </c>
       <c r="C1023" s="2" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="P1023" s="2" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1025" spans="1:16">
       <c r="A1025" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1025" s="2">
         <v>1</v>
       </c>
       <c r="C1025" s="2" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="P1025" s="2" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1026" spans="1:16">
       <c r="A1026" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1026" s="2">
         <v>2</v>
       </c>
       <c r="C1026" s="2" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="P1026" s="2" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="1027" spans="1:16">
       <c r="A1027" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1027" s="2">
         <v>3</v>
       </c>
       <c r="C1027" s="2" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="P1027" s="2" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1028" spans="1:16">
       <c r="A1028" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1028" s="2">
         <v>4</v>
       </c>
       <c r="C1028" s="2" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="P1028" s="2" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1029" spans="1:16">
       <c r="A1029" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1029" s="2">
         <v>5</v>
       </c>
       <c r="C1029" s="2" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="P1029" s="2" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1030" spans="1:16">
       <c r="A1030" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1030" s="2">
         <v>6</v>
       </c>
       <c r="C1030" s="2" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="P1030" s="2" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="1031" spans="1:16">
       <c r="A1031" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1031" s="2">
         <v>7</v>
       </c>
       <c r="C1031" s="2" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="P1031" s="2" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1032" spans="1:16">
       <c r="A1032" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1032" s="2">
         <v>8</v>
       </c>
       <c r="C1032" s="2" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="P1032" s="2" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1033" spans="1:16">
       <c r="A1033" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1033" s="2">
         <v>9</v>
       </c>
       <c r="C1033" s="2" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="P1033" s="2" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="1034" spans="1:16">
       <c r="A1034" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1034" s="2">
         <v>10</v>
       </c>
       <c r="C1034" s="2" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="P1034" s="2" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="1035" spans="1:16">
       <c r="A1035" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1035" s="2">
         <v>11</v>
       </c>
       <c r="C1035" s="2" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="P1035" s="2" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1036" spans="1:16">
       <c r="A1036" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1036" s="2">
         <v>12</v>
       </c>
       <c r="C1036" s="2" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="P1036" s="2" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1037" spans="1:16">
       <c r="A1037" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1037" s="2">
         <v>13</v>
       </c>
       <c r="C1037" s="2" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="P1037" s="2" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1038" spans="1:16">
       <c r="A1038" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1038" s="2">
         <v>14</v>
       </c>
       <c r="C1038" s="2" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="P1038" s="2" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1039" spans="1:16">
       <c r="A1039" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1039" s="2">
         <v>15</v>
       </c>
       <c r="C1039" s="2" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="P1039" s="2" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1040" spans="1:16">
       <c r="A1040" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1040" s="2">
         <v>16</v>
       </c>
       <c r="C1040" s="2" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="P1040" s="2" t="s">
         <v>68</v>
@@ -24458,100 +24461,100 @@
     </row>
     <row r="1041" spans="1:16">
       <c r="A1041" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1041" s="2">
         <v>17</v>
       </c>
       <c r="C1041" s="2" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="P1041" s="2" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1042" spans="1:16">
       <c r="A1042" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1042" s="2">
         <v>18</v>
       </c>
       <c r="C1042" s="2" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="P1042" s="2" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1043" spans="1:16">
       <c r="A1043" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1043" s="2">
         <v>19</v>
       </c>
       <c r="C1043" s="2" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="P1043" s="2" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1044" spans="1:16">
       <c r="A1044" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1044" s="2">
         <v>20</v>
       </c>
       <c r="C1044" s="2" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="P1044" s="2" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1045" spans="1:16">
       <c r="A1045" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1045" s="2">
         <v>21</v>
       </c>
       <c r="C1045" s="2" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="P1045" s="2" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1046" spans="1:16">
       <c r="A1046" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1046" s="2">
         <v>22</v>
       </c>
       <c r="C1046" s="2" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="P1046" s="2" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1047" spans="1:16">
       <c r="A1047" s="2" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B1047" s="2">
         <v>23</v>
       </c>
       <c r="C1047" s="2" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="P1047" s="2" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="1049" spans="1:16">
@@ -24562,10 +24565,10 @@
         <v>5</v>
       </c>
       <c r="C1049" s="2" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="P1049" s="2" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1050" spans="1:16">
@@ -24576,10 +24579,10 @@
         <v>6</v>
       </c>
       <c r="C1050" s="2" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="P1050" s="2" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="1051" spans="1:16">
@@ -24590,10 +24593,10 @@
         <v>7</v>
       </c>
       <c r="C1051" s="2" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="P1051" s="2" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1052" spans="1:16">
@@ -24604,10 +24607,10 @@
         <v>8</v>
       </c>
       <c r="C1052" s="2" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="P1052" s="2" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="1053" spans="1:16">
@@ -24618,10 +24621,10 @@
         <v>9</v>
       </c>
       <c r="C1053" s="2" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="P1053" s="2" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1054" spans="1:16">
@@ -24632,10 +24635,10 @@
         <v>10</v>
       </c>
       <c r="C1054" s="2" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="P1054" s="2" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="1055" ht="28.5" spans="1:16">
@@ -24646,10 +24649,10 @@
         <v>11</v>
       </c>
       <c r="C1055" s="2" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="P1055" s="2" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1056" spans="1:16">
@@ -24660,10 +24663,10 @@
         <v>12</v>
       </c>
       <c r="C1056" s="2" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="P1056" s="2" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="1057" spans="1:16">
@@ -24674,10 +24677,10 @@
         <v>13</v>
       </c>
       <c r="C1057" s="2" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="P1057" s="2" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1058" spans="1:16">
@@ -24688,10 +24691,10 @@
         <v>14</v>
       </c>
       <c r="C1058" s="2" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="P1058" s="2" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="1059" spans="1:16">
@@ -24702,10 +24705,10 @@
         <v>15</v>
       </c>
       <c r="C1059" s="2" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="P1059" s="2" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="1060" spans="1:16">
@@ -24716,10 +24719,10 @@
         <v>16</v>
       </c>
       <c r="C1060" s="2" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="P1060" s="2" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1061" spans="1:16">
@@ -24730,80 +24733,80 @@
         <v>17</v>
       </c>
       <c r="C1061" s="2" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="P1061" s="2" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1063" spans="1:16">
       <c r="A1063" s="16" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="B1063" s="2">
         <v>1</v>
       </c>
       <c r="C1063" s="16" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="P1063" s="16" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1064" spans="1:16">
       <c r="A1064" s="16" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="B1064" s="2">
         <v>2</v>
       </c>
       <c r="C1064" s="16" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="P1064" s="16" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1065" spans="1:16">
       <c r="A1065" s="16" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="B1065" s="2">
         <v>3</v>
       </c>
       <c r="C1065" s="16" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="P1065" s="16" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1066" spans="1:16">
       <c r="A1066" s="16" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="B1066" s="2">
         <v>4</v>
       </c>
       <c r="C1066" s="16" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="P1066" s="16" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1067" spans="1:16">
       <c r="A1067" s="16" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="B1067" s="2">
         <v>5</v>
       </c>
       <c r="C1067" s="16" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="P1067" s="16" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1068" spans="1:16">
